--- a/data/by_spot_isc_splithalf.xlsx
+++ b/data/by_spot_isc_splithalf.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schmaelz/Documents/01_GITHUB/nomcomm/GITHUB_PAPERS_WORKING/vr_video_pupil_study/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schmaelz/Documents/01_GITHUB/nomcomm/GITHUB_PAPERS_WORKING/vr_video_pupil_study_rerun/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B908EB4B-1376-FC4A-9AED-2208EDDA8D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC9248E-5070-EE42-B713-650198766F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="20220" xr2:uid="{A7791231-5027-D141-B209-F53E476355A7}"/>
+    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="19860" xr2:uid="{A7791231-5027-D141-B209-F53E476355A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>commercial_milk_30s</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>50wd</t>
-  </si>
-  <si>
-    <t>xxx</t>
   </si>
 </sst>
 </file>
@@ -151,7 +148,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -193,7 +190,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -513,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01ACC19-B383-8746-B1B2-598D38BCBCAB}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,7 +525,7 @@
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>100</v>
       </c>
@@ -539,7 +536,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -552,8 +549,20 @@
       <c r="D2" s="2">
         <v>0.48290310530749397</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <f>FISHER(B2)</f>
+        <v>0.90708676449285197</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:G17" si="0">FISHER(C2)</f>
+        <v>1.1026962378118161</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>0.52676336445404259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -566,8 +575,20 @@
       <c r="D3" s="2">
         <v>0.90368243797619896</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <f t="shared" ref="E3:E31" si="1">FISHER(B3)</f>
+        <v>1.0241904196374421</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>1.0187149392370556</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>1.4919473723190781</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -580,8 +601,20 @@
       <c r="D4" s="2">
         <v>0.65209767325308898</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>1.0864774462263269</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.60234142494078746</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0.77893965323332959</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -594,8 +627,20 @@
       <c r="D5" s="2">
         <v>0.59831730110621295</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>1.3525502623501497</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1.1961961714710836</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0.69052209864507819</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -608,8 +653,20 @@
       <c r="D6" s="2">
         <v>0.62963292846980601</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>1.116464448350684</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1.0655677655095446</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0.74080773605929962</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -622,8 +679,20 @@
       <c r="D7" s="2">
         <v>0.67711047239153399</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.5388090356513614</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.58544213668250744</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0.82375869486544329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -636,8 +705,20 @@
       <c r="D8" s="2">
         <v>0.75075978063112103</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>1.3675900361525339</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1.4096425317942693</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0.97469398261552587</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -650,8 +731,20 @@
       <c r="D9" s="2">
         <v>0.50244461452157296</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0.60843924089458767</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>1.2258587173769528</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.55257096275882822</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -664,8 +757,20 @@
       <c r="D10" s="2">
         <v>0.78428894019816897</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>1.2198717833294999</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.9792382818510702</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>1.0564177179696141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -678,11 +783,20 @@
       <c r="D11" s="2">
         <v>-0.28102472422770602</v>
       </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>7.797248036744478E-2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>-0.20480634830839226</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>-0.28879431613485063</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -695,8 +809,20 @@
       <c r="D12" s="2">
         <v>0.66968825081497496</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0.9604035276605275</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0.95783699994425564</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0.81017765440417833</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -709,8 +835,20 @@
       <c r="D13" s="2">
         <v>0.52883380331993701</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>1.2984905090021313</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1.2704877379355444</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0.58852480636357962</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -723,8 +861,20 @@
       <c r="D14" s="2">
         <v>0.87516355033592896</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>1.3705012160265559</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1.2910746862545712</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>1.3547233417687929</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -737,8 +887,20 @@
       <c r="D15" s="2">
         <v>0.70464048114534805</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0.7673710184957856</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0.4150960310407576</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0.87645809184247347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -751,8 +913,20 @@
       <c r="D16" s="2">
         <v>0.37990614307328302</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0.6252229147440036</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0.28883061402981319</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0.3999499574253455</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -765,8 +939,20 @@
       <c r="D17" s="2">
         <v>0.81700749895124203</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>1.3113458342111082</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0.79462619659536304</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>1.1477505106836456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -779,8 +965,20 @@
       <c r="D18" s="2">
         <v>0.52790073104818902</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>1.2644080042957342</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ref="F18:F31" si="2">FISHER(C18)</f>
+        <v>1.4552723708540507</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18:G31" si="3">FISHER(D18)</f>
+        <v>0.58723036098817005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -793,8 +991,20 @@
       <c r="D19" s="2">
         <v>0.91731775884144295</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>1.51566477711889</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>1.1460421156867642</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>1.5718388234200631</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -807,8 +1017,20 @@
       <c r="D20" s="2">
         <v>0.87473500881730004</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0.84206091711134257</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>0.82486894577905934</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>1.3528955884508906</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -821,8 +1043,20 @@
       <c r="D21" s="2">
         <v>0.57620865359780904</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>0.8155886462413624</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>1.0409937598998387</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>0.65676821475200553</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -835,8 +1069,20 @@
       <c r="D22" s="2">
         <v>0.80826227952011898</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>1.3119981133842582</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>0.64499656016923801</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>1.1219965987794485</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -849,8 +1095,20 @@
       <c r="D23" s="2">
         <v>0.76184381527715295</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>0.96060270409285686</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>0.78125307420455725</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>1.0005947326014568</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -863,8 +1121,20 @@
       <c r="D24" s="2">
         <v>0.51336887097759698</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>1.2687127205352446</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>1.3664210998718176</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>0.56729354215255812</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -877,8 +1147,20 @@
       <c r="D25" s="2">
         <v>1.1215491138176799E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>0.87097132363094354</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>0.69274188542501136</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>1.1215961428901881E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -891,8 +1173,20 @@
       <c r="D26" s="2">
         <v>0.83334481096742197</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>1.7378104894292383</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>0.84461470468878741</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>1.1989852007411743</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -905,8 +1199,20 @@
       <c r="D27" s="2">
         <v>0.84718668973727196</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>1.4297137514769671</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>1.476909860349803</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>1.2461010351919817</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -919,8 +1225,20 @@
       <c r="D28" s="2">
         <v>0.652786589952983</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>1.1078609073071581</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>1.2990067145300865</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>0.78013918967600926</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -933,8 +1251,20 @@
       <c r="D29" s="2">
         <v>0.12295254088612</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>0.44660488491395506</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>0.87797256672934954</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>0.12357779331627093</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -947,8 +1277,20 @@
       <c r="D30" s="2">
         <v>0.79817257486762905</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>1.4658336746997616</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>1.8886143303910512</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>1.0935565953868414</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -961,8 +1303,20 @@
       <c r="D31" s="2">
         <v>0.82722702184442798</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>0.96101534262262001</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>0.80867147348545454</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>1.1792881701438167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -979,7 +1333,7 @@
         <v>-0.28102472422770602</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -996,7 +1350,7 @@
         <v>0.91731775884144295</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -1011,6 +1365,32 @@
       <c r="D35" s="1">
         <f>AVERAGE(D2:D31)</f>
         <v>0.62493250315806159</v>
+      </c>
+      <c r="E35" s="1">
+        <f>AVERAGE(E2:E31)</f>
+        <v>1.0543877731484443</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" ref="F35:G35" si="4">AVERAGE(F2:F31)</f>
+        <v>0.97157411954106221</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="4"/>
+        <v>0.83388978121009982</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <f>FISHERINV(E35)</f>
+        <v>0.78350638819626195</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ref="F37:G37" si="5">FISHERINV(F35)</f>
+        <v>0.74939520618304145</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="5"/>
+        <v>0.68255910921132001</v>
       </c>
     </row>
   </sheetData>
